--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEGA\Code\Accounting\Weekly-Sales-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3587E6CC-6415-41DE-A1AA-B153FDC66B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEFD68D-C715-452F-88B9-D7D214BFF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86EC57EF-75D3-4A22-91DF-A8F6AEFDE735}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>ردیف</t>
   </si>
@@ -89,27 +89,9 @@
     <t>درصد باقی‌مانده</t>
   </si>
   <si>
-    <t xml:space="preserve"> اطلاعات کلی</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> پیش‌فاکتور</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> فاکتور</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> دریافت پرداخت</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
     <t>نوع عملیات</t>
   </si>
   <si>
-    <t>وضعیت پرداخت</t>
-  </si>
-  <si>
     <t>نوع</t>
   </si>
   <si>
@@ -137,9 +119,6 @@
     <t>مبلغ فاکتور</t>
   </si>
   <si>
-    <t>مالیات</t>
-  </si>
-  <si>
     <t>نوع تراکنش</t>
   </si>
   <si>
@@ -161,18 +140,6 @@
     <t>غیررسمی</t>
   </si>
   <si>
-    <t>INFORMATION</t>
-  </si>
-  <si>
-    <t>SALES ORDER</t>
-  </si>
-  <si>
-    <t>DELIVERY ORDER</t>
-  </si>
-  <si>
-    <t>MONEY</t>
-  </si>
-  <si>
     <t>واریز</t>
   </si>
   <si>
@@ -186,6 +153,27 @@
   </si>
   <si>
     <t>تا تاریخ</t>
+  </si>
+  <si>
+    <t>اطلاعات</t>
+  </si>
+  <si>
+    <t>پیش‌فاکتور</t>
+  </si>
+  <si>
+    <t>پول</t>
+  </si>
+  <si>
+    <t>محمد</t>
+  </si>
+  <si>
+    <t>موعد پرداخت</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ارزش افزوده</t>
   </si>
 </sst>
 </file>
@@ -198,7 +186,7 @@
     <numFmt numFmtId="166" formatCode="&quot;DO-&quot;0"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -212,26 +200,6 @@
       <name val="Mustang"/>
       <family val="2"/>
       <charset val="178"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Mustang"/>
-      <family val="2"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="6" tint="0.39997558519241921"/>
-      <name val="Mustang"/>
-      <family val="2"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="7" tint="0.79998168889431442"/>
-      <name val="Mustang"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -253,27 +221,34 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Mustang"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="8" tint="0.39997558519241921"/>
       <name val="Mustang"/>
       <family val="2"/>
       <charset val="178"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="14"/>
       <color theme="7" tint="0.39997558519241921"/>
       <name val="Mustang"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="14"/>
       <color theme="6" tint="0.39997558519241921"/>
       <name val="Mustang"/>
       <family val="2"/>
       <charset val="178"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="14"/>
       <color theme="5" tint="0.39997558519241921"/>
       <name val="Mustang"/>
       <family val="2"/>
@@ -281,13 +256,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Mustang"/>
       <family val="2"/>
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +335,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -374,75 +373,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -451,131 +402,95 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Mustang"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="0" tint="-0.34998626667073579"/>
         <name val="Mustang"/>
         <family val="2"/>
@@ -585,79 +500,111 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="6"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="7"/>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="1" tint="0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="8"/>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Mustang"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
     </dxf>
     <dxf>
@@ -670,70 +617,6 @@
       <numFmt numFmtId="166" formatCode="&quot;DO-&quot;0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -743,35 +626,40 @@
       <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+      <numFmt numFmtId="165" formatCode="&quot;SO-&quot;0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Mustang"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;SO-&quot;0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -787,87 +675,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31778918-BFA4-4692-AFDE-09D68AD4E52B}" name="Table1" displayName="Table1" ref="B4:F5" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="B4:F5" xr:uid="{31778918-BFA4-4692-AFDE-09D68AD4E52B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDEFA63C-1B33-4316-BAC7-96ADEE0A37E7}" name="ردیف">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}" name="T_Info" displayName="T_Info" ref="A4:Z11" totalsRowCount="1" tableBorderDxfId="29">
+  <autoFilter ref="A4:Z10" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{A05B717B-F398-4A92-B5F4-00FD5C107672}" name="ردیف" totalsRowLabel="Total">
       <calculatedColumnFormula>ROW()-4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{844769EE-E95E-4475-93D4-CFF165A5825C}" name="تاریخ عملیات" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{42E0B998-DD2B-41DA-9D6F-C8A2264BA8F2}" name="نوع عملیات"/>
-    <tableColumn id="3" xr3:uid="{1CE1DB1F-B953-4CDA-AC3A-51BF1DF96F67}" name="وضعیت پرداخت" dataDxfId="16">
-      <calculatedColumnFormula>IF(AND(Table2[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(Table4[[#This Row],[تاریخ]]&gt;=P_FromDate, Table4[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(Table2[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, Table2[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(Table4[[#This Row],[تاریخ]]&gt;=P_FromDate, Table4[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(Table2[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, Table2[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), Table4[[#This Row],[تاریخ]]=""), "آینده",
+    <tableColumn id="2" xr3:uid="{970DF7B5-BB99-438A-B60C-3A5A00D6B324}" name="تاریخ عملیات" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{7386F4DB-6F78-40FC-A66B-77512629439E}" name="نوع عملیات"/>
+    <tableColumn id="4" xr3:uid="{9E818FF7-0890-4FD8-9EB1-BB51CEF94779}" name="موعد پرداخت" dataDxfId="27" totalsRowDxfId="3">
+      <calculatedColumnFormula>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
 ""
 )))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{44AF9BE4-E9EA-403C-934D-4060F8DC87E2}" name="نوع"/>
+    <tableColumn id="5" xr3:uid="{FD74141B-8A00-4AC8-B5CD-5D545EDDADF9}" name="نوع"/>
+    <tableColumn id="6" xr3:uid="{13FE157E-D9A5-4CD7-B0CD-B8DBE5213FB8}" name="شماره SO" totalsRowFunction="count" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{80048A2C-D362-4403-B041-D61D627FA528}" name="تاریخ ایجاد SO" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{5C9ED248-ECB1-462E-97DB-B732314CDD8A}" name="نام مشتری"/>
+    <tableColumn id="9" xr3:uid="{5D4DF9CC-1EE4-40D7-85D5-38727B12E984}" name="مبلغ SO" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{6778AF26-C553-4167-A70E-57B1AE78A596}" name="کد مشتری"/>
+    <tableColumn id="11" xr3:uid="{F855F628-4985-4973-8AEE-1F737A320728}" name="شماره پیش‌فاکتور"/>
+    <tableColumn id="12" xr3:uid="{4DCC603D-11C6-422B-999F-09A7EABBDC8A}" name="تاریخ پیش‌فاکتور" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{3E3F5083-70F4-46F3-BB5F-20DCD783BDDE}" name="مبلغ پیش‌فاکتور" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{9289555B-AC5E-4070-8A1E-86098AF61377}" name="شماره DO" totalsRowFunction="count" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{936AA520-EA06-4C9C-8CD3-8E72EBC1E2F7}" name="تاریخ ایجاد DO" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{BA37AE61-0E5D-4AB0-BEF8-4580C1C9514E}" name="مبلغ DO" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{1F9A6AB0-58E7-4382-A2FE-D6C1EF6DDCD5}" name="شماره فاکتور"/>
+    <tableColumn id="18" xr3:uid="{C6CC4AD8-B980-449E-ACDE-56CFA4324691}" name="تاریخ فاکتور" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{E961B5AF-76E7-4CF3-9A24-BEF9E4548E77}" name="مبلغ فاکتور" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{6C2F776E-639D-4921-A4F0-51CA91A24224}" name="ارزش افزوده" dataDxfId="16"/>
+    <tableColumn id="21" xr3:uid="{47A8E1B3-A31C-4188-AF54-8F293414CFD4}" name="مبلغ" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{7FDBA80C-75A4-41C3-8439-BB9F33446751}" name="نوع تراکنش"/>
+    <tableColumn id="23" xr3:uid="{E18B8398-FC61-4CF2-B7EC-9066BB1DE5E2}" name="تاریخ" dataDxfId="14"/>
+    <tableColumn id="24" xr3:uid="{A5839D7D-7EF0-4F5A-B8D1-8362F525E294}" name="شماره سند سپیدار"/>
+    <tableColumn id="25" xr3:uid="{60A8C8DF-6F05-4BF8-AF86-C6EB8C65E37B}" name="باقی‌مانده مبلغ SO" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{39A14624-2744-4465-AF66-3F7AD6D3D455}" name="درصد باقی‌مانده" dataDxfId="12" totalsRowDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Form!$Y5/Form!$I5</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{14BFD73A-F1F1-4165-B032-B07D9CDF77D2}" name="Table2" displayName="Table2" ref="H4:P5" totalsRowShown="0" headerRowDxfId="51">
-  <autoFilter ref="H4:P5" xr:uid="{14BFD73A-F1F1-4165-B032-B07D9CDF77D2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{416B4C64-6176-476A-88FE-21B63C3E48D9}" name="FK">
-      <calculatedColumnFormula>Table1[[#This Row],[ردیف]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{F00E02D6-0A6E-44DF-93D9-C9724AE4CBF2}" name="شماره SO" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{FAB05B7A-EA25-4DBF-82C2-E55B7F343C0E}" name="تاریخ ایجاد SO" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{385348A8-2000-4EFA-8E26-BA2DA3620FE3}" name="نام مشتری"/>
-    <tableColumn id="5" xr3:uid="{1E4EC9F3-98BC-4B5D-B8E2-0AAA049EAC54}" name="مبلغ SO" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{70AA49BE-B796-4244-96EB-DCCADA013F11}" name="کد مشتری"/>
-    <tableColumn id="7" xr3:uid="{F76C9CBB-ECEE-439E-88BD-BA4D30715C79}" name="شماره پیش‌فاکتور"/>
-    <tableColumn id="8" xr3:uid="{19AB48E6-672B-495D-9C31-BD807DDC9B7B}" name="تاریخ پیش‌فاکتور" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{C0CCCBBB-F9C8-409F-A2A8-20E51F5884CC}" name="مبلغ پیش‌فاکتور" dataDxfId="46"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{886564BE-3F94-4173-BF93-A20C82134C89}" name="Table3" displayName="Table3" ref="R4:Y5" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="R4:Y5" xr:uid="{886564BE-3F94-4173-BF93-A20C82134C89}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{34E1CB24-3B90-4EE3-A729-414DEF6AD381}" name="FK">
-      <calculatedColumnFormula>Table1[[#This Row],[ردیف]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{D65EFD4B-1951-4255-B16F-9D5542660884}" name="شماره DO" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{D502568B-FEEC-4A06-B695-D89806A3D74F}" name="تاریخ ایجاد DO" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{C3AB9EF4-9EFA-496E-8396-A8A3318C9F18}" name="مبلغ DO" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{C36A7873-A0F6-4351-951F-37B353EF3E37}" name="شماره فاکتور"/>
-    <tableColumn id="6" xr3:uid="{47FFEBBB-1807-469E-81E1-A9461805F7A2}" name="تاریخ فاکتور" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{F336218D-6A15-4EEF-B059-B215C53C3069}" name="مبلغ فاکتور" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{2EAEFD6A-D475-4A78-8EAA-17C0DC145D1B}" name="مالیات" dataDxfId="27"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DE387919-0BC6-4AD9-ABA0-3F59B2211357}" name="Table4" displayName="Table4" ref="AA4:AG5" totalsRowShown="0" headerRowDxfId="45">
-  <autoFilter ref="AA4:AG5" xr:uid="{DE387919-0BC6-4AD9-ABA0-3F59B2211357}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E1145DEE-D9FE-4CFA-84AB-80C63EF4B812}" name="FK">
-      <calculatedColumnFormula>Table1[[#This Row],[ردیف]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{9DD05086-7F76-4D2B-8866-CAD9C33D710F}" name="مبلغ" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{72D6E1D7-CA27-4E10-ACC8-E0BD7F3C155C}" name="نوع تراکنش"/>
-    <tableColumn id="4" xr3:uid="{F7FBE739-BA0B-4AF0-8AC4-0614609C5EE8}" name="تاریخ" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{38DDF9BB-DBAD-4AC2-8B26-10E7F6FD81A4}" name="شماره سند سپیدار"/>
-    <tableColumn id="6" xr3:uid="{AAADD2A8-258F-47BA-BD8D-6F0DB3946BA1}" name="باقی‌مانده مبلغ SO" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{3B1EFD4B-1D53-4626-94D5-7298DE85FF12}" name="درصد باقی‌مانده" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table4[[#This Row],[باقی‌مانده مبلغ SO]]/Table2[[#This Row],[مبلغ SO]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5309A8DF-81E9-4169-B451-CF3D2F706193}" name="T_Action" displayName="T_Action" ref="E2:E6" totalsRowShown="0">
   <autoFilter ref="E2:E6" xr:uid="{5309A8DF-81E9-4169-B451-CF3D2F706193}"/>
   <tableColumns count="1">
@@ -877,7 +729,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F18A5222-7B3A-4800-8077-296A3D7892F9}" name="T_Kind" displayName="T_Kind" ref="G2:G4" totalsRowShown="0">
   <autoFilter ref="G2:G4" xr:uid="{F18A5222-7B3A-4800-8077-296A3D7892F9}"/>
   <tableColumns count="1">
@@ -887,7 +739,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B401B5A9-8CDD-4FB2-8670-47267A774857}" name="T_TransactionKind" displayName="T_TransactionKind" ref="I2:I4" totalsRowShown="0">
   <autoFilter ref="I2:I4" xr:uid="{B401B5A9-8CDD-4FB2-8670-47267A774857}"/>
   <tableColumns count="1">
@@ -1195,443 +1047,782 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48E47AC-B523-4128-B622-20059BA34D40}">
   <sheetPr>
+    <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelCol="2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="16.125" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="6.75" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1" outlineLevel="2"/>
-    <col min="11" max="11" width="11.625" customWidth="1" outlineLevel="2"/>
-    <col min="12" max="12" width="15.625" customWidth="1" outlineLevel="2"/>
-    <col min="13" max="13" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="17.25" customWidth="1" outlineLevel="2"/>
-    <col min="15" max="15" width="16.5" customWidth="1" outlineLevel="2"/>
-    <col min="16" max="16" width="16" customWidth="1" outlineLevel="2"/>
-    <col min="17" max="17" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="15.25" customWidth="1" outlineLevel="2"/>
-    <col min="21" max="21" width="15.625" customWidth="1" outlineLevel="2"/>
-    <col min="22" max="22" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1" outlineLevel="2"/>
-    <col min="24" max="24" width="15.625" customWidth="1" outlineLevel="2"/>
-    <col min="25" max="25" width="13.625" customWidth="1" outlineLevel="2"/>
-    <col min="26" max="26" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.375" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="12.375" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="14.5" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="32" width="18.25" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="15.75" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.625" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="6.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="18.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="15.75" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
+    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="22" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="21" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="17" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="12" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="S4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG4" s="6" t="s">
+      <c r="Z4" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <f>ROW()-4</f>
+    <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3">
         <v>14030510</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="24" t="str">
-        <f>IF(AND(Table2[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(Table4[[#This Row],[تاریخ]]&gt;=P_FromDate, Table4[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(Table2[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, Table2[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(Table4[[#This Row],[تاریخ]]&gt;=P_FromDate, Table4[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(Table2[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, Table2[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), Table4[[#This Row],[تاریخ]]=""), "آینده",
+      <c r="D5" s="8" t="str">
+        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
 ""
 )))</f>
         <v>گذشته</v>
       </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <f>Table1[[#This Row],[ردیف]]</f>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4">
+        <v>493</v>
+      </c>
+      <c r="G5" s="3">
+        <v>14030410</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="J5">
+        <v>555</v>
+      </c>
+      <c r="K5">
+        <v>123</v>
+      </c>
+      <c r="L5" s="3">
+        <v>14030510</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>7568</v>
+      </c>
+      <c r="O5" s="3">
+        <v>14030510</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="Q5">
+        <v>223</v>
+      </c>
+      <c r="R5" s="3">
+        <v>14030510</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="T5" s="6">
+        <v>100000</v>
+      </c>
+      <c r="U5" s="6">
+        <v>600000</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="3">
+        <v>14030510</v>
+      </c>
+      <c r="X5">
+        <v>323</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>400000</v>
+      </c>
+      <c r="Z5" s="22">
+        <f>Form!$Y5/Form!$I5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
+""
+)))</f>
+        <v>آینده</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
-        <v>493</v>
-      </c>
-      <c r="J5" s="5">
-        <v>14030410</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="M5">
-        <v>555</v>
-      </c>
-      <c r="N5">
-        <v>123</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="M6" s="6">
+        <v>100000</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="22">
+        <f>Form!$Y6/Form!$I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>14030507</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
+""
+)))</f>
+        <v/>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3">
+        <v>14030606</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="M7" s="6">
+        <v>100000</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>20000</v>
+      </c>
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="3">
+        <v>14030507</v>
+      </c>
+      <c r="X7">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>80000</v>
+      </c>
+      <c r="Z7" s="22">
+        <f>Form!$Y7/Form!$I7</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>14030508</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
+""
+)))</f>
+        <v>آینده</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="M8" s="6">
+        <v>100000</v>
+      </c>
+      <c r="N8" s="5">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>14030509</v>
+      </c>
+      <c r="P8" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>14030509</v>
+      </c>
+      <c r="S8" s="6">
+        <v>100000</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="W8" s="3"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="22">
+        <f>Form!$Y8/Form!$I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14030509</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
+""
+)))</f>
+        <v>حال</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="M9" s="6">
+        <v>100000</v>
+      </c>
+      <c r="N9" s="5">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>14030509</v>
+      </c>
+      <c r="P9" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>14030509</v>
+      </c>
+      <c r="S9" s="6">
+        <v>100000</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>80000</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="3">
         <v>14030510</v>
       </c>
-      <c r="P5" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="R5">
-        <f>Table1[[#This Row],[ردیف]]</f>
+      <c r="X9">
+        <v>101</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="22">
+        <f>Form!$Y9/Form!$I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
+        <v>14030510</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
+IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
+""
+)))</f>
+        <v>حال</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="6">
+        <v>100000</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="S5" s="9">
-        <v>7568</v>
-      </c>
-      <c r="T5" s="5">
-        <v>14030510</v>
-      </c>
-      <c r="U5" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="V5">
-        <v>223</v>
-      </c>
-      <c r="W5" s="5">
-        <v>14030510</v>
-      </c>
-      <c r="X5" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="Y5" s="10">
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>14030506</v>
+      </c>
+      <c r="M10" s="6">
         <v>100000</v>
       </c>
-      <c r="AA5">
-        <f>Table1[[#This Row],[ردیف]]</f>
-        <v>1</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>600000</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>14030510</v>
-      </c>
-      <c r="AE5">
-        <v>323</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>400000</v>
-      </c>
-      <c r="AG5" s="7">
-        <f>Table4[[#This Row],[باقی‌مانده مبلغ SO]]/Table2[[#This Row],[مبلغ SO]]</f>
-        <v>0.4</v>
-      </c>
+      <c r="N10" s="5">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
+        <v>14030509</v>
+      </c>
+      <c r="P10" s="6">
+        <v>100000</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>14030509</v>
+      </c>
+      <c r="S10" s="6">
+        <v>100000</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <v>100000</v>
+      </c>
+      <c r="V10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="3">
+        <v>14030511</v>
+      </c>
+      <c r="X10">
+        <v>101</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="22">
+        <f>Form!$Y10/Form!$I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="F11">
+        <f>SUBTOTAL(103,T_Info[شماره SO])</f>
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <f>SUBTOTAL(103,T_Info[شماره DO])</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="6">
+        <f>SUBTOTAL(109,T_Info[مبلغ])</f>
+        <v>800000</v>
+      </c>
+      <c r="Y11" s="6">
+        <f>SUBTOTAL(109,T_Info[باقی‌مانده مبلغ SO])</f>
+        <v>480000</v>
+      </c>
+      <c r="Z11" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="H1:P2"/>
-    <mergeCell ref="R1:Y2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="AA1:AG2"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="Q1:Q4"/>
-    <mergeCell ref="Z1:Z4"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>$B1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A5:A10 A12:A999">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="notEqual">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>AND($F1="غیررسمی", $Y1&gt;0)</formula>
+  <conditionalFormatting sqref="E1:E10 E12:E1048576">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>AND($E1="غیررسمی", $T1&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$H1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="F5:F10 F12:F999">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576 P1:P1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$L1&lt;&gt;$P1</formula>
+  <conditionalFormatting sqref="I1:I1048576 M1:M1048576 P1:P1048576 S1:S1048576">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>AND($N1&lt;&gt;"", NOT(AND($I1=$M1, $I1=$P1, $I1=$S1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$R1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="I1:I1048576 M1:M1048576">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND($N1="", $I1&lt;&gt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576 X1:X1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$L1&lt;&gt;$X1</formula>
+  <conditionalFormatting sqref="N5:N10 N12:N999">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="notEqual">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1048576">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>$AA1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="T1:T10 T12:T1048576">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND($E1="رسمی", $N1&lt;&gt;"", OR($T1="", $T1&lt;=0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1048576">
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>AND($F1="رسمی", $Y1="")</formula>
+  <conditionalFormatting sqref="U5:U10 U12:U999">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="D5" xr:uid="{4EB4466E-23DD-4947-B8F9-F17502A71542}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="C5:C10" xr:uid="{4EB4466E-23DD-4947-B8F9-F17502A71542}">
       <formula1>L_Action</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="F5" xr:uid="{248EA904-4303-44FE-8657-46C312F51D90}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E5:E10" xr:uid="{248EA904-4303-44FE-8657-46C312F51D90}">
       <formula1>L_Kind</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5" xr:uid="{E80FAD77-1C52-4A04-9BE0-02E1300F2472}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V10" xr:uid="{E80FAD77-1C52-4A04-9BE0-02E1300F2472}">
       <formula1>L_TransactionKind</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1660,37 +1851,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>47</v>
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="28">
+      <c r="B3" s="10">
         <v>14030506</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="11">
         <v>14030512</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
@@ -1698,15 +1889,15 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="E5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEGA\Code\Accounting\Weekly-Sales-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEFD68D-C715-452F-88B9-D7D214BFF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEC02D-CFFB-49DB-8044-6A2E826C8855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86EC57EF-75D3-4A22-91DF-A8F6AEFDE735}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>ردیف</t>
   </si>
@@ -146,9 +146,6 @@
     <t>برداشت</t>
   </si>
   <si>
-    <t>حسن کلید ساز</t>
-  </si>
-  <si>
     <t>از تاریخ</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>پول</t>
-  </si>
-  <si>
-    <t>محمد</t>
   </si>
   <si>
     <t>موعد پرداخت</t>
@@ -186,7 +180,7 @@
     <numFmt numFmtId="166" formatCode="&quot;DO-&quot;0"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -200,18 +194,6 @@
       <name val="Mustang"/>
       <family val="2"/>
       <charset val="178"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="7" tint="0.79998168889431442"/>
-      <name val="Mustang"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="6" tint="0.79998168889431442"/>
-      <name val="Mustang"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -260,6 +242,13 @@
       <name val="Mustang"/>
       <family val="2"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="Mustang"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -383,13 +372,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,49 +391,49 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +441,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="50">
     <dxf>
       <font>
         <b val="0"/>
@@ -500,6 +489,182 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -675,15 +840,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}" name="T_Info" displayName="T_Info" ref="A4:Z11" totalsRowCount="1" tableBorderDxfId="29">
-  <autoFilter ref="A4:Z10" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}" name="T_Info" displayName="T_Info" ref="A4:Z6" totalsRowCount="1" tableBorderDxfId="49">
+  <autoFilter ref="A4:Z5" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{A05B717B-F398-4A92-B5F4-00FD5C107672}" name="ردیف" totalsRowLabel="Total">
       <calculatedColumnFormula>ROW()-4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{970DF7B5-BB99-438A-B60C-3A5A00D6B324}" name="تاریخ عملیات" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{970DF7B5-BB99-438A-B60C-3A5A00D6B324}" name="تاریخ عملیات" dataDxfId="48"/>
     <tableColumn id="3" xr3:uid="{7386F4DB-6F78-40FC-A66B-77512629439E}" name="نوع عملیات"/>
-    <tableColumn id="4" xr3:uid="{9E818FF7-0890-4FD8-9EB1-BB51CEF94779}" name="موعد پرداخت" dataDxfId="27" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{9E818FF7-0890-4FD8-9EB1-BB51CEF94779}" name="موعد پرداخت" dataDxfId="47" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
 IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
 IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
@@ -691,27 +856,27 @@
 )))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{FD74141B-8A00-4AC8-B5CD-5D545EDDADF9}" name="نوع"/>
-    <tableColumn id="6" xr3:uid="{13FE157E-D9A5-4CD7-B0CD-B8DBE5213FB8}" name="شماره SO" totalsRowFunction="count" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{80048A2C-D362-4403-B041-D61D627FA528}" name="تاریخ ایجاد SO" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{13FE157E-D9A5-4CD7-B0CD-B8DBE5213FB8}" name="شماره SO" totalsRowFunction="count" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{80048A2C-D362-4403-B041-D61D627FA528}" name="تاریخ ایجاد SO" dataDxfId="45"/>
     <tableColumn id="8" xr3:uid="{5C9ED248-ECB1-462E-97DB-B732314CDD8A}" name="نام مشتری"/>
-    <tableColumn id="9" xr3:uid="{5D4DF9CC-1EE4-40D7-85D5-38727B12E984}" name="مبلغ SO" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{5D4DF9CC-1EE4-40D7-85D5-38727B12E984}" name="مبلغ SO" dataDxfId="44"/>
     <tableColumn id="10" xr3:uid="{6778AF26-C553-4167-A70E-57B1AE78A596}" name="کد مشتری"/>
     <tableColumn id="11" xr3:uid="{F855F628-4985-4973-8AEE-1F737A320728}" name="شماره پیش‌فاکتور"/>
-    <tableColumn id="12" xr3:uid="{4DCC603D-11C6-422B-999F-09A7EABBDC8A}" name="تاریخ پیش‌فاکتور" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{3E3F5083-70F4-46F3-BB5F-20DCD783BDDE}" name="مبلغ پیش‌فاکتور" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{9289555B-AC5E-4070-8A1E-86098AF61377}" name="شماره DO" totalsRowFunction="count" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{936AA520-EA06-4C9C-8CD3-8E72EBC1E2F7}" name="تاریخ ایجاد DO" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{BA37AE61-0E5D-4AB0-BEF8-4580C1C9514E}" name="مبلغ DO" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{4DCC603D-11C6-422B-999F-09A7EABBDC8A}" name="تاریخ پیش‌فاکتور" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{3E3F5083-70F4-46F3-BB5F-20DCD783BDDE}" name="مبلغ پیش‌فاکتور" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{9289555B-AC5E-4070-8A1E-86098AF61377}" name="شماره DO" totalsRowFunction="count" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{936AA520-EA06-4C9C-8CD3-8E72EBC1E2F7}" name="تاریخ ایجاد DO" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{BA37AE61-0E5D-4AB0-BEF8-4580C1C9514E}" name="مبلغ DO" dataDxfId="39"/>
     <tableColumn id="17" xr3:uid="{1F9A6AB0-58E7-4382-A2FE-D6C1EF6DDCD5}" name="شماره فاکتور"/>
-    <tableColumn id="18" xr3:uid="{C6CC4AD8-B980-449E-ACDE-56CFA4324691}" name="تاریخ فاکتور" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{E961B5AF-76E7-4CF3-9A24-BEF9E4548E77}" name="مبلغ فاکتور" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{6C2F776E-639D-4921-A4F0-51CA91A24224}" name="ارزش افزوده" dataDxfId="16"/>
-    <tableColumn id="21" xr3:uid="{47A8E1B3-A31C-4188-AF54-8F293414CFD4}" name="مبلغ" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{C6CC4AD8-B980-449E-ACDE-56CFA4324691}" name="تاریخ فاکتور" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{E961B5AF-76E7-4CF3-9A24-BEF9E4548E77}" name="مبلغ فاکتور" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{6C2F776E-639D-4921-A4F0-51CA91A24224}" name="ارزش افزوده" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{47A8E1B3-A31C-4188-AF54-8F293414CFD4}" name="مبلغ" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="2"/>
     <tableColumn id="22" xr3:uid="{7FDBA80C-75A4-41C3-8439-BB9F33446751}" name="نوع تراکنش"/>
-    <tableColumn id="23" xr3:uid="{E18B8398-FC61-4CF2-B7EC-9066BB1DE5E2}" name="تاریخ" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{E18B8398-FC61-4CF2-B7EC-9066BB1DE5E2}" name="تاریخ" dataDxfId="34"/>
     <tableColumn id="24" xr3:uid="{A5839D7D-7EF0-4F5A-B8D1-8362F525E294}" name="شماره سند سپیدار"/>
-    <tableColumn id="25" xr3:uid="{60A8C8DF-6F05-4BF8-AF86-C6EB8C65E37B}" name="باقی‌مانده مبلغ SO" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{39A14624-2744-4465-AF66-3F7AD6D3D455}" name="درصد باقی‌مانده" dataDxfId="12" totalsRowDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="25" xr3:uid="{60A8C8DF-6F05-4BF8-AF86-C6EB8C65E37B}" name="باقی‌مانده مبلغ SO" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{39A14624-2744-4465-AF66-3F7AD6D3D455}" name="درصد باقی‌مانده" dataDxfId="32" totalsRowDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>Form!$Y5/Form!$I5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1050,51 +1215,51 @@
     <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.625" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="6.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="25" width="18.25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="15.75" style="23" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.625" style="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="6.75" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="15.25" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="15.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="13.625" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.375" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="18.25" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="15.75" style="23" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="34" t="s">
-        <v>38</v>
+      <c r="F1" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
@@ -1103,7 +1268,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="30" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="15"/>
@@ -1113,7 +1278,7 @@
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
       <c r="U1" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
@@ -1127,7 +1292,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="34"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
@@ -1135,7 +1300,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
-      <c r="N2" s="33"/>
+      <c r="N2" s="30"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -1155,23 +1320,23 @@
       <c r="C3" s="2"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="30" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="28" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>16</v>
@@ -1244,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="T4" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>5</v>
@@ -1267,496 +1432,59 @@
     </row>
     <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f t="shared" ref="A5:A10" si="0">ROW()-4</f>
+        <f t="shared" ref="A5" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>14030510</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="D5" s="8" t="str">
         <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
 IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
 IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
 ""
 )))</f>
-        <v>گذشته</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4">
-        <v>493</v>
-      </c>
-      <c r="G5" s="3">
-        <v>14030410</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="J5">
-        <v>555</v>
-      </c>
-      <c r="K5">
-        <v>123</v>
-      </c>
-      <c r="L5" s="3">
-        <v>14030510</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="N5" s="5">
-        <v>7568</v>
-      </c>
-      <c r="O5" s="3">
-        <v>14030510</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="Q5">
-        <v>223</v>
-      </c>
-      <c r="R5" s="3">
-        <v>14030510</v>
-      </c>
-      <c r="S5" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="T5" s="6">
-        <v>100000</v>
-      </c>
-      <c r="U5" s="6">
-        <v>600000</v>
-      </c>
-      <c r="V5" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="3">
-        <v>14030510</v>
-      </c>
-      <c r="X5">
-        <v>323</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>400000</v>
-      </c>
-      <c r="Z5" s="22">
+        <v/>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="6"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="6"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="22" t="e">
         <f>Form!$Y5/Form!$I5</f>
-        <v>0.4</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B6" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
-""
-)))</f>
-        <v>آینده</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100</v>
-      </c>
-      <c r="G6" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="6">
-        <v>100000</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="M6" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="6"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="W6" s="3"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="22">
-        <f>Form!$Y6/Form!$I6</f>
+      <c r="D6" s="8"/>
+      <c r="F6">
+        <f>SUBTOTAL(103,T_Info[شماره SO])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>14030507</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
-""
-)))</f>
-        <v/>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4">
-        <v>100</v>
-      </c>
-      <c r="G7" s="3">
-        <v>14030606</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="6">
-        <v>100000</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="M7" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="6"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
-        <v>20000</v>
-      </c>
-      <c r="V7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="3">
-        <v>14030507</v>
-      </c>
-      <c r="X7">
-        <v>100</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>80000</v>
-      </c>
-      <c r="Z7" s="22">
-        <f>Form!$Y7/Form!$I7</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>14030508</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
-""
-)))</f>
-        <v>آینده</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="6">
-        <v>100000</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="M8" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N8" s="5">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>14030509</v>
-      </c>
-      <c r="P8" s="6">
-        <v>100000</v>
-      </c>
-      <c r="Q8">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>14030509</v>
-      </c>
-      <c r="S8" s="6">
-        <v>100000</v>
-      </c>
-      <c r="T8" s="6">
+      <c r="N6">
+        <f>SUBTOTAL(103,T_Info[شماره DO])</f>
         <v>0</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="W8" s="3"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="22">
-        <f>Form!$Y8/Form!$I8</f>
+      <c r="U6" s="6">
+        <f>SUBTOTAL(109,T_Info[مبلغ])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>14030509</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
-""
-)))</f>
-        <v>حال</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="6">
-        <v>100000</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="M9" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N9" s="5">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>14030509</v>
-      </c>
-      <c r="P9" s="6">
-        <v>100000</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>14030509</v>
-      </c>
-      <c r="S9" s="6">
-        <v>100000</v>
-      </c>
-      <c r="T9" s="6">
+      <c r="Y6" s="6">
+        <f>SUBTOTAL(109,T_Info[باقی‌مانده مبلغ SO])</f>
         <v>0</v>
       </c>
-      <c r="U9" s="6">
-        <v>80000</v>
-      </c>
-      <c r="V9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="3">
-        <v>14030510</v>
-      </c>
-      <c r="X9">
-        <v>101</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="22">
-        <f>Form!$Y9/Form!$I9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>14030510</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
-""
-)))</f>
-        <v>حال</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="6">
-        <v>100000</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>14030506</v>
-      </c>
-      <c r="M10" s="6">
-        <v>100000</v>
-      </c>
-      <c r="N10" s="5">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>14030509</v>
-      </c>
-      <c r="P10" s="6">
-        <v>100000</v>
-      </c>
-      <c r="Q10">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>14030509</v>
-      </c>
-      <c r="S10" s="6">
-        <v>100000</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>100000</v>
-      </c>
-      <c r="V10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10" s="3">
-        <v>14030511</v>
-      </c>
-      <c r="X10">
-        <v>101</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="22">
-        <f>Form!$Y10/Form!$I10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="F11">
-        <f>SUBTOTAL(103,T_Info[شماره SO])</f>
-        <v>6</v>
-      </c>
-      <c r="N11">
-        <f>SUBTOTAL(103,T_Info[شماره DO])</f>
-        <v>4</v>
-      </c>
-      <c r="U11" s="6">
-        <f>SUBTOTAL(109,T_Info[مبلغ])</f>
-        <v>800000</v>
-      </c>
-      <c r="Y11" s="6">
-        <f>SUBTOTAL(109,T_Info[باقی‌مانده مبلغ SO])</f>
-        <v>480000</v>
-      </c>
-      <c r="Z11" s="26"/>
+      <c r="Z6" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1769,54 +1497,69 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:A10 A12:A999">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="notEqual">
+  <conditionalFormatting sqref="A5 A7:A994">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E10 E12:E1048576">
-    <cfRule type="expression" dxfId="10" priority="3">
+  <conditionalFormatting sqref="E1:E5 E7:E1048576">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>AND($E1="غیررسمی", $T1&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F10 F12:F999">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
+  <conditionalFormatting sqref="F5 F7:F994">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576 M1:M1048576 P1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND($N1&lt;&gt;"", NOT(AND($I1=$M1, $I1=$P1, $I1=$S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AND($N1="", $I1&lt;&gt;$M1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N10 N12:N999">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="N5 N7:N994">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T10 T12:T1048576">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="T1:T5 T7:T1048576">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>AND($E1="رسمی", $N1&lt;&gt;"", OR($T1="", $T1&lt;=0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U10 U12:U999">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+  <conditionalFormatting sqref="U5 U7:U994">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A4:E4">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:M4">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:T4">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="C5:C10" xr:uid="{4EB4466E-23DD-4947-B8F9-F17502A71542}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="C5" xr:uid="{4EB4466E-23DD-4947-B8F9-F17502A71542}">
       <formula1>L_Action</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E5:E10" xr:uid="{248EA904-4303-44FE-8657-46C312F51D90}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E5" xr:uid="{248EA904-4303-44FE-8657-46C312F51D90}">
       <formula1>L_Kind</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V10" xr:uid="{E80FAD77-1C52-4A04-9BE0-02E1300F2472}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5" xr:uid="{E80FAD77-1C52-4A04-9BE0-02E1300F2472}">
       <formula1>L_TransactionKind</formula1>
     </dataValidation>
   </dataValidations>
@@ -1852,10 +1595,10 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>

--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEGA\Code\Accounting\Weekly-Sales-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEC02D-CFFB-49DB-8044-6A2E826C8855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DEC036-6A86-422E-8FFB-6ACCCEFE00E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86EC57EF-75D3-4A22-91DF-A8F6AEFDE735}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <definedName name="L_Action">T_Action[نوع عملیات]</definedName>
     <definedName name="L_Kind">T_Kind[نوع]</definedName>
     <definedName name="L_TransactionKind">T_TransactionKind[نوع تراکنش]</definedName>
-    <definedName name="P_FromDate">Const!$B$3</definedName>
-    <definedName name="P_ToDate">Const!$C$3</definedName>
+    <definedName name="P_FromDate" localSheetId="0">Form!$A$2</definedName>
+    <definedName name="P_ToDate" localSheetId="0">Form!$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,7 +180,7 @@
     <numFmt numFmtId="166" formatCode="&quot;DO-&quot;0"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -250,8 +250,22 @@
       <name val="Mustang"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Mustang"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Mustang"/>
+      <family val="2"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,18 +322,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,6 +350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -379,18 +387,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -403,15 +399,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -421,27 +420,128 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -463,10 +563,71 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Mustang"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;DO-&quot;0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;SO-&quot;0"/>
     </dxf>
     <dxf>
       <font>
@@ -490,314 +651,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Mustang"/>
-        <family val="2"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;DO-&quot;0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_ * #,##0_-[$ريال-429]_ ;_ * #,##0\-[$ريال-429]_ ;_ * &quot;-&quot;_-[$ريال-429]_ ;_ @_ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="##00\ &quot;/&quot;\ 00\ &quot;/&quot;\ 00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;SO-&quot;0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -840,44 +693,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}" name="T_Info" displayName="T_Info" ref="A4:Z6" totalsRowCount="1" tableBorderDxfId="49">
-  <autoFilter ref="A4:Z5" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}" name="T_Info" displayName="T_Info" ref="C4:AB6" totalsRowCount="1" tableBorderDxfId="32">
+  <autoFilter ref="C4:AB5" xr:uid="{C62A422B-87CC-45AB-AC2E-B8D0A877EC3D}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{A05B717B-F398-4A92-B5F4-00FD5C107672}" name="ردیف" totalsRowLabel="Total">
       <calculatedColumnFormula>ROW()-4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{970DF7B5-BB99-438A-B60C-3A5A00D6B324}" name="تاریخ عملیات" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{970DF7B5-BB99-438A-B60C-3A5A00D6B324}" name="تاریخ عملیات" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{7386F4DB-6F78-40FC-A66B-77512629439E}" name="نوع عملیات"/>
-    <tableColumn id="4" xr3:uid="{9E818FF7-0890-4FD8-9EB1-BB51CEF94779}" name="موعد پرداخت" dataDxfId="47" totalsRowDxfId="3">
-      <calculatedColumnFormula>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
-IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
-""
-)))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9E818FF7-0890-4FD8-9EB1-BB51CEF94779}" name="موعد پرداخت" dataDxfId="30" totalsRowDxfId="29"/>
     <tableColumn id="5" xr3:uid="{FD74141B-8A00-4AC8-B5CD-5D545EDDADF9}" name="نوع"/>
-    <tableColumn id="6" xr3:uid="{13FE157E-D9A5-4CD7-B0CD-B8DBE5213FB8}" name="شماره SO" totalsRowFunction="count" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{80048A2C-D362-4403-B041-D61D627FA528}" name="تاریخ ایجاد SO" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{13FE157E-D9A5-4CD7-B0CD-B8DBE5213FB8}" name="شماره SO" totalsRowFunction="count" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{80048A2C-D362-4403-B041-D61D627FA528}" name="تاریخ ایجاد SO" dataDxfId="27"/>
     <tableColumn id="8" xr3:uid="{5C9ED248-ECB1-462E-97DB-B732314CDD8A}" name="نام مشتری"/>
-    <tableColumn id="9" xr3:uid="{5D4DF9CC-1EE4-40D7-85D5-38727B12E984}" name="مبلغ SO" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{5D4DF9CC-1EE4-40D7-85D5-38727B12E984}" name="مبلغ SO" dataDxfId="26"/>
     <tableColumn id="10" xr3:uid="{6778AF26-C553-4167-A70E-57B1AE78A596}" name="کد مشتری"/>
     <tableColumn id="11" xr3:uid="{F855F628-4985-4973-8AEE-1F737A320728}" name="شماره پیش‌فاکتور"/>
-    <tableColumn id="12" xr3:uid="{4DCC603D-11C6-422B-999F-09A7EABBDC8A}" name="تاریخ پیش‌فاکتور" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{3E3F5083-70F4-46F3-BB5F-20DCD783BDDE}" name="مبلغ پیش‌فاکتور" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{9289555B-AC5E-4070-8A1E-86098AF61377}" name="شماره DO" totalsRowFunction="count" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{936AA520-EA06-4C9C-8CD3-8E72EBC1E2F7}" name="تاریخ ایجاد DO" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{BA37AE61-0E5D-4AB0-BEF8-4580C1C9514E}" name="مبلغ DO" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{4DCC603D-11C6-422B-999F-09A7EABBDC8A}" name="تاریخ پیش‌فاکتور" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{3E3F5083-70F4-46F3-BB5F-20DCD783BDDE}" name="مبلغ پیش‌فاکتور" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{9289555B-AC5E-4070-8A1E-86098AF61377}" name="شماره DO" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{936AA520-EA06-4C9C-8CD3-8E72EBC1E2F7}" name="تاریخ ایجاد DO" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{BA37AE61-0E5D-4AB0-BEF8-4580C1C9514E}" name="مبلغ DO" dataDxfId="21"/>
     <tableColumn id="17" xr3:uid="{1F9A6AB0-58E7-4382-A2FE-D6C1EF6DDCD5}" name="شماره فاکتور"/>
-    <tableColumn id="18" xr3:uid="{C6CC4AD8-B980-449E-ACDE-56CFA4324691}" name="تاریخ فاکتور" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{E961B5AF-76E7-4CF3-9A24-BEF9E4548E77}" name="مبلغ فاکتور" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{6C2F776E-639D-4921-A4F0-51CA91A24224}" name="ارزش افزوده" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{47A8E1B3-A31C-4188-AF54-8F293414CFD4}" name="مبلغ" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{C6CC4AD8-B980-449E-ACDE-56CFA4324691}" name="تاریخ فاکتور" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{E961B5AF-76E7-4CF3-9A24-BEF9E4548E77}" name="مبلغ فاکتور" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{6C2F776E-639D-4921-A4F0-51CA91A24224}" name="ارزش افزوده" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{47A8E1B3-A31C-4188-AF54-8F293414CFD4}" name="مبلغ" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
     <tableColumn id="22" xr3:uid="{7FDBA80C-75A4-41C3-8439-BB9F33446751}" name="نوع تراکنش"/>
-    <tableColumn id="23" xr3:uid="{E18B8398-FC61-4CF2-B7EC-9066BB1DE5E2}" name="تاریخ" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{E18B8398-FC61-4CF2-B7EC-9066BB1DE5E2}" name="تاریخ" dataDxfId="15"/>
     <tableColumn id="24" xr3:uid="{A5839D7D-7EF0-4F5A-B8D1-8362F525E294}" name="شماره سند سپیدار"/>
-    <tableColumn id="25" xr3:uid="{60A8C8DF-6F05-4BF8-AF86-C6EB8C65E37B}" name="باقی‌مانده مبلغ SO" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{39A14624-2744-4465-AF66-3F7AD6D3D455}" name="درصد باقی‌مانده" dataDxfId="32" totalsRowDxfId="0" dataCellStyle="Percent">
-      <calculatedColumnFormula>Form!$Y5/Form!$I5</calculatedColumnFormula>
+    <tableColumn id="25" xr3:uid="{60A8C8DF-6F05-4BF8-AF86-C6EB8C65E37B}" name="باقی‌مانده مبلغ SO" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{39A14624-2744-4465-AF66-3F7AD6D3D455}" name="درصد باقی‌مانده" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Percent">
+      <calculatedColumnFormula>Form!$AA5/Form!$K5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -885,8 +732,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5309A8DF-81E9-4169-B451-CF3D2F706193}" name="T_Action" displayName="T_Action" ref="E2:E6" totalsRowShown="0">
-  <autoFilter ref="E2:E6" xr:uid="{5309A8DF-81E9-4169-B451-CF3D2F706193}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5309A8DF-81E9-4169-B451-CF3D2F706193}" name="T_Action" displayName="T_Action" ref="B2:B6" totalsRowShown="0">
+  <autoFilter ref="B2:B6" xr:uid="{5309A8DF-81E9-4169-B451-CF3D2F706193}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{97BEE37C-C7D1-4B71-A8C8-40F2116E1FB2}" name="نوع عملیات"/>
   </tableColumns>
@@ -895,8 +742,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F18A5222-7B3A-4800-8077-296A3D7892F9}" name="T_Kind" displayName="T_Kind" ref="G2:G4" totalsRowShown="0">
-  <autoFilter ref="G2:G4" xr:uid="{F18A5222-7B3A-4800-8077-296A3D7892F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F18A5222-7B3A-4800-8077-296A3D7892F9}" name="T_Kind" displayName="T_Kind" ref="D2:D4" totalsRowShown="0">
+  <autoFilter ref="D2:D4" xr:uid="{F18A5222-7B3A-4800-8077-296A3D7892F9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{4FB3DD3E-717A-49B4-985E-44CA331C7546}" name="نوع"/>
   </tableColumns>
@@ -905,8 +752,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B401B5A9-8CDD-4FB2-8670-47267A774857}" name="T_TransactionKind" displayName="T_TransactionKind" ref="I2:I4" totalsRowShown="0">
-  <autoFilter ref="I2:I4" xr:uid="{B401B5A9-8CDD-4FB2-8670-47267A774857}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B401B5A9-8CDD-4FB2-8670-47267A774857}" name="T_TransactionKind" displayName="T_TransactionKind" ref="F2:F4" totalsRowShown="0">
+  <autoFilter ref="F2:F4" xr:uid="{B401B5A9-8CDD-4FB2-8670-47267A774857}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{FACE7AB9-0C3E-4AFD-ABB5-FC1037111D0C}" name="نوع تراکنش"/>
   </tableColumns>
@@ -1215,228 +1062,242 @@
     <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.625" style="9" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="16" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="15.25" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="15.625" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="13.625" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.375" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="25" width="18.25" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="15.75" style="23" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="13.625" style="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="6.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="11.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="16.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="16" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="15.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="13.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="14.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="27" width="18.25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="15.75" style="19" hidden="1" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="29" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
     </row>
-    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+    <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32">
+        <v>14030506</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="32" t="s">
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="34" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="32">
+        <v>14030512</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="I4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="K4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="L4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="M4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="N4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="O4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="P4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="Q4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="R4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="S4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="T4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="U4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="V4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="W4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="X4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="Y4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="Z4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="AA4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="25" t="s">
+      <c r="AB4" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <f t="shared" ref="A5" si="0">ROW()-4</f>
+    <row r="5" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <f t="shared" ref="C5" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="8" t="str">
+      <c r="D5" s="3"/>
+      <c r="F5" s="8" t="str">
         <f>IF(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;P_FromDate, AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "گذشته",
 IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), AND(T_Info[[#This Row],[تاریخ]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ]]&lt;=P_ToDate)), "حال",
 IF(AND(AND(T_Info[[#This Row],[تاریخ ایجاد SO]]&gt;=P_FromDate, T_Info[[#This Row],[تاریخ ایجاد SO]]&lt;=P_ToDate), OR(T_Info[[#This Row],[تاریخ]]&gt;=P_ToDate, T_Info[[#This Row],[تاریخ]]="")), "آینده",
@@ -1444,122 +1305,122 @@
 )))</f>
         <v/>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="6"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="6"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="6"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6"/>
+      <c r="T5" s="3"/>
       <c r="U5" s="6"/>
-      <c r="W5" s="3"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="22" t="e">
-        <f>Form!$Y5/Form!$I5</f>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="Y5" s="3"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="18" t="e">
+        <f>Form!$AA5/Form!$K5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="F6">
+      <c r="F6" s="8"/>
+      <c r="H6">
         <f>SUBTOTAL(103,T_Info[شماره SO])</f>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f>SUBTOTAL(103,T_Info[شماره DO])</f>
         <v>0</v>
       </c>
-      <c r="U6" s="6">
+      <c r="W6" s="6">
         <f>SUBTOTAL(109,T_Info[مبلغ])</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="AA6" s="6">
         <f>SUBTOTAL(109,T_Info[باقی‌مانده مبلغ SO])</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="26"/>
+      <c r="AB6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5 A7:A994">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="notEqual">
+  <conditionalFormatting sqref="C5 C7:C994">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5 E7:E1048576">
-    <cfRule type="expression" dxfId="13" priority="6">
-      <formula>AND($E1="غیررسمی", $T1&gt;0)</formula>
+  <conditionalFormatting sqref="C4:G4">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5 F7:F994">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="notEqual">
+  <conditionalFormatting sqref="G1:G5 G7:G1048576">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>AND($G1="غیررسمی", $V1&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H7:H994">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576 M1:M1048576 P1:P1048576 S1:S1048576">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>AND($N1&lt;&gt;"", NOT(AND($I1=$M1, $I1=$P1, $I1=$S1)))</formula>
+  <conditionalFormatting sqref="H4:O4">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576 M1:M1048576">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>AND($N1="", $I1&lt;&gt;$M1)</formula>
+  <conditionalFormatting sqref="K1:K1048576 O1:O1048576 R1:R1048576 U1:U1048576">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND($P1&lt;&gt;"", NOT(AND($K1=$O1, $K1=$R1, $K1=$U1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5 N7:N994">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="notEqual">
+  <conditionalFormatting sqref="K1:K1048576 O1:O1048576">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND($P1="", $K1&lt;&gt;$O1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5 P7:P994">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T5 T7:T1048576">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND($E1="رسمی", $N1&lt;&gt;"", OR($T1="", $T1&lt;=0))</formula>
+  <conditionalFormatting sqref="P4:V4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5 U7:U994">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+  <conditionalFormatting sqref="V1:V5 V7:V1048576">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>AND($G1="رسمی", $P1&lt;&gt;"", OR($V1="", $V1&lt;=0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5 W7:W994">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:E4">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:M4">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:T4">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="C5" xr:uid="{4EB4466E-23DD-4947-B8F9-F17502A71542}">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E5" xr:uid="{4EB4466E-23DD-4947-B8F9-F17502A71542}">
       <formula1>L_Action</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="E5" xr:uid="{248EA904-4303-44FE-8657-46C312F51D90}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="فقط از لیست کشویی می‌تونی انتخاب کنی" sqref="G5" xr:uid="{248EA904-4303-44FE-8657-46C312F51D90}">
       <formula1>L_Kind</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5" xr:uid="{E80FAD77-1C52-4A04-9BE0-02E1300F2472}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5" xr:uid="{E80FAD77-1C52-4A04-9BE0-02E1300F2472}">
       <formula1>L_TransactionKind</formula1>
     </dataValidation>
   </dataValidations>
@@ -1575,76 +1436,60 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="3.125" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="3.125" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="3.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="10">
-        <v>14030506</v>
-      </c>
-      <c r="C3" s="11">
-        <v>14030512</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E4" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E6" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
